--- a/Master/MasterData/WarpData.xlsx
+++ b/Master/MasterData/WarpData.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A3:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -299,7 +299,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0</v>
@@ -313,7 +313,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
@@ -327,7 +327,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0</v>
@@ -341,7 +341,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
@@ -355,7 +355,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
@@ -369,7 +369,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>0</v>
@@ -383,7 +383,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0</v>
@@ -411,7 +411,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>0</v>

--- a/Master/MasterData/WarpData.xlsx
+++ b/Master/MasterData/WarpData.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A3:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,7 +296,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>-1000</v>
@@ -310,7 +310,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>-1000</v>
@@ -324,7 +324,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>-1000</v>
@@ -338,7 +338,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>-1000</v>
@@ -352,7 +352,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>-1000</v>
@@ -366,7 +366,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>-1000</v>
@@ -380,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>-1000</v>
@@ -394,7 +394,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>-1000</v>
@@ -404,18 +404,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>

--- a/Master/MasterData/WarpData.xlsx
+++ b/Master/MasterData/WarpData.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">$AUTO_KEY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WarpDataId</t>
   </si>
   <si>
     <t xml:space="preserve">AreaId</t>
@@ -146,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,6 +164,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,10 +248,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:E28"/>
+  <dimension ref="A5:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="B15:E15"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -255,22 +259,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -282,9 +284,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -299,193 +304,231 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-1000</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>-1000</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="n">
-        <v>2</v>
+      <c r="B9" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>-1000</v>
-      </c>
       <c r="E9" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="n">
-        <v>2</v>
+      <c r="B10" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>-1000</v>
-      </c>
       <c r="E10" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="n">
-        <v>2</v>
+      <c r="B11" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>-1000</v>
-      </c>
       <c r="E11" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="n">
-        <v>2</v>
+      <c r="B12" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>-1000</v>
-      </c>
       <c r="E12" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="n">
-        <v>2</v>
+      <c r="B13" s="5" t="n">
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>-1000</v>
-      </c>
       <c r="E13" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F13" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="n">
-        <v>2</v>
+      <c r="B14" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>-1000</v>
-      </c>
       <c r="E14" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/WarpData.xlsx
+++ b/Master/MasterData/WarpData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -248,10 +251,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:F28"/>
+  <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -275,27 +278,33 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -312,6 +321,9 @@
       <c r="F7" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="n">
@@ -327,6 +339,9 @@
         <v>-1000</v>
       </c>
       <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -346,6 +361,9 @@
       <c r="F9" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="n">
@@ -363,6 +381,9 @@
       <c r="F10" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="n">
@@ -380,6 +401,9 @@
       <c r="F11" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="n">
@@ -397,6 +421,9 @@
       <c r="F12" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="n">
@@ -414,6 +441,9 @@
       <c r="F13" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="n">
@@ -429,6 +459,9 @@
         <v>-1000</v>
       </c>
       <c r="F14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -438,6 +471,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>
@@ -445,6 +479,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5"/>
@@ -452,6 +487,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5"/>
@@ -459,6 +495,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5"/>
@@ -466,6 +503,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5"/>
@@ -473,6 +511,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5"/>
@@ -480,6 +519,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5"/>
@@ -487,6 +527,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5"/>
@@ -494,6 +535,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5"/>
@@ -501,6 +543,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5"/>
@@ -508,6 +551,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5"/>
@@ -515,6 +559,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5"/>
@@ -522,6 +567,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5"/>
@@ -529,6 +575,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/WarpData.xlsx
+++ b/Master/MasterData/WarpData.xlsx
@@ -254,7 +254,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="E14:F14 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,13 +316,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>-1000</v>
+        <v>-790</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0</v>
+        <v>2710</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,10 +336,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0</v>
@@ -356,10 +356,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0</v>
@@ -376,10 +376,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0</v>
@@ -396,10 +396,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>0</v>
@@ -416,10 +416,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>0</v>
@@ -456,10 +456,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>0</v>

--- a/Master/MasterData/WarpData.xlsx
+++ b/Master/MasterData/WarpData.xlsx
@@ -254,7 +254,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="E14:F14 G11"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,12 +466,24 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>-620</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>660</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>

--- a/Master/MasterData/WarpData.xlsx
+++ b/Master/MasterData/WarpData.xlsx
@@ -254,7 +254,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,12 +486,24 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>530</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>-2910</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5"/>

--- a/Master/MasterData/WarpData.xlsx
+++ b/Master/MasterData/WarpData.xlsx
@@ -254,7 +254,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,24 +486,12 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>530</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>-2910</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>192</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5"/>

--- a/Master/MasterData/WarpData.xlsx
+++ b/Master/MasterData/WarpData.xlsx
@@ -254,7 +254,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,12 +486,24 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>530</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>-2910</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5"/>
